--- a/output/fit_clients/fit_round_35.xlsx
+++ b/output/fit_clients/fit_round_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5042128726.96534</v>
+        <v>11144037859.73024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2467628887271273</v>
+        <v>0.1121181609149922</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.538231785102796</v>
+        <v>0.09702512638312914</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09840062890456749</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.893868174546498</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.768669940810505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.479530641663603</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5173347234.790771</v>
+        <v>11700564337.09969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2810098344498222</v>
+        <v>0.1345450821554324</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6582970237341838</v>
+        <v>0.1485123090913051</v>
       </c>
       <c r="I3" t="n">
-        <v>1.425499221229593</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9897698867106683</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5145040885465064</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.674687953569309</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8794863647216472</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.91503934086363</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5370935666.224673</v>
+        <v>6008132464.510838</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2765242822288299</v>
+        <v>0.2179870380249067</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6425712739938177</v>
+        <v>0.3400763308007265</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456320826012936</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.769737641070924</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7803444117610835</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.837150594150746</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10387170006.04762</v>
+        <v>14721826315.02766</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1397052382078194</v>
+        <v>0.07312742773639885</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1629018955121365</v>
+        <v>0.00751114532575557</v>
       </c>
       <c r="I5" t="n">
-        <v>1.422930754164315</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.507383554681871</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2630499585010058</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.753615615338244</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5441641882.496782</v>
+        <v>10239672036.21978</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2247952284281404</v>
+        <v>0.1314853107831609</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4612160886571053</v>
+        <v>0.1414877600682624</v>
       </c>
       <c r="I6" t="n">
-        <v>1.199474119485081</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.845846276378982</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7872557080948952</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.899267885518922</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6268402825.987011</v>
+        <v>6478669055.955808</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1876245261590719</v>
+        <v>0.2474376551965267</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3309005482825233</v>
+        <v>0.4076883445464876</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06466838145828113</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.70208655882735</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.588129818675149</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.06050981467563</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5335489719.229809</v>
+        <v>4567288107.23029</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2867072828360392</v>
+        <v>0.263815063055151</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6782715203103219</v>
+        <v>0.4452872009237419</v>
       </c>
       <c r="I8" t="n">
-        <v>1.499984766122671</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.750071264918736</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7597673789802116</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.445276314685497</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>8338192527.73367</v>
+        <v>13407899132.40695</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1394797680830365</v>
+        <v>0.09943910651725311</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1621114272305118</v>
+        <v>0.06791686032447146</v>
       </c>
       <c r="I9" t="n">
-        <v>1.140399376983675</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.05528648623288</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7848036724663422</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.640786963093964</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>3862049442.274795</v>
+        <v>13759149416.94687</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3750658016296141</v>
+        <v>0.09937544382764657</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9880447400878812</v>
+        <v>0.06777070506328672</v>
       </c>
       <c r="I10" t="n">
-        <v>1.420362287099036</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.729025427662705</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7911422939324961</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.093820450987216</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>5105563770.331209</v>
+        <v>3504162153.386752</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2108619808562612</v>
+        <v>0.4328072570883141</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.412367975071336</v>
+        <v>0.8332553877808604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07232597330300936</v>
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4385286486512144</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.835037476272659</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5858548859247188</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.882060242221716</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>9571222353.24028</v>
+        <v>9435138454.063639</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1324579780105933</v>
+        <v>0.1349236734784447</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1374939647714083</v>
+        <v>0.1493814698829574</v>
       </c>
       <c r="I12" t="n">
-        <v>1.243138059594816</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.801499263546662</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.773287260440937</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.664245945272079</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7613179018.480104</v>
+        <v>8520804064.776895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1627403568197387</v>
+        <v>0.1681538877208669</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2436599588862262</v>
+        <v>0.2256705910596203</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06966609490038717</v>
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9893243316933895</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2750836408353514</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.584417330936052</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8616838865753029</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.64926040057001</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7799447324.012895</v>
+        <v>10246085398.64462</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1776609614034889</v>
+        <v>0.157223445572013</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2959696148882033</v>
+        <v>0.2005767466587052</v>
       </c>
       <c r="I14" t="n">
-        <v>1.358719077532351</v>
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.987608083017397</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3726770953430197</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.603705397737496</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.899945097106758</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.39519654439766</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>3964309270.014276</v>
+        <v>10577480998.7999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3706768796054876</v>
+        <v>0.09286438331692082</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9726577629709087</v>
+        <v>0.05282277001033668</v>
       </c>
       <c r="I15" t="n">
-        <v>1.440910023621265</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.215766748183743</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6914965626555539</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.614164504927336</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>11363107866.40836</v>
+        <v>3371298059.014751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1376186733756913</v>
+        <v>0.3954766047561047</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1555866766158917</v>
+        <v>0.7475525801311855</v>
       </c>
       <c r="I16" t="n">
-        <v>1.533374837971292</v>
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4056425542434706</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.010922320956332</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5772430298551326</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.533938276146321</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6400027455.448102</v>
+        <v>12646692693.31774</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1813101237577042</v>
+        <v>0.113502063725993</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3087630929522393</v>
+        <v>0.1002022569449413</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07928518295365715</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.050772178492613</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8034755930830255</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.018739683167896</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5495667431.592873</v>
+        <v>8054068559.149117</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2221087347795005</v>
+        <v>0.1362695638781537</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.451797599089672</v>
+        <v>0.1524713324714094</v>
       </c>
       <c r="I18" t="n">
-        <v>1.196905652419803</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.801533449841019</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7372318722018364</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.94310399419571</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8446757878.715323</v>
+        <v>5562849963.497745</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1556731942457417</v>
+        <v>0.2354359741128997</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.218883426468871</v>
+        <v>0.3801351757395402</v>
       </c>
       <c r="I19" t="n">
-        <v>1.28937046676983</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.141973095010885</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7803444117610835</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.464915140210785</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>4048720818.927809</v>
+        <v>10221719709.07089</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3784758738701569</v>
+        <v>0.1447853582491279</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1720216869753965</v>
       </c>
       <c r="I20" t="n">
-        <v>1.50255323318795</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.386627825648471</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8113068078698715</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.839508331748959</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>4436477570.727836</v>
+        <v>14136426674.25727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3188273979638189</v>
+        <v>0.06985570347832498</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7908803736343969</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.386972215250415</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.391426128847734</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.56759384398739</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.960450750900065</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>7783403317.972511</v>
+        <v>5054457130.940271</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1844213464674875</v>
+        <v>0.3130131523552328</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3196706261410449</v>
+        <v>0.5582349829901825</v>
       </c>
       <c r="I22" t="n">
-        <v>1.407519951772644</v>
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9894815989642811</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3584498673314382</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.454136042918266</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8699085853688933</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.9440356644596</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>4797776166.672669</v>
+        <v>4092510502.339007</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2609684938404137</v>
+        <v>0.3443440937279396</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5880347480192735</v>
+        <v>0.6301637995041</v>
       </c>
       <c r="I23" t="n">
-        <v>1.227727257203145</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.112640810259306</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7987845162067554</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.863049513875803</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>9934535254.825136</v>
+        <v>11617629549.14523</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.138424165270548</v>
+        <v>0.128290621050975</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1584106241105008</v>
+        <v>0.1341534687416229</v>
       </c>
       <c r="I24" t="n">
-        <v>1.348445209271237</v>
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9882759161735887</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3309561756436074</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.727465003265052</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8895074940933801</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15.06268487860255</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>4573969696.070953</v>
+        <v>10210076911.97488</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2891999811752755</v>
+        <v>0.1264788973808249</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6870105892877383</v>
+        <v>0.1299941574112051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08713505134973877</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.973567085695105</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7768345349865355</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.563123614035606</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>7362497647.298515</v>
+        <v>10146201459.21969</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1487138023605003</v>
+        <v>0.1525752761979019</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1944847237583655</v>
+        <v>0.1899055919666441</v>
       </c>
       <c r="I26" t="n">
-        <v>1.073619233286432</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.559270599217181</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5323834926508202</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.088399253799221</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>4015737487.931464</v>
+        <v>8229564902.868608</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3646251814020444</v>
+        <v>0.1868363574681864</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9514413136324779</v>
+        <v>0.2685613527030731</v>
       </c>
       <c r="I27" t="n">
-        <v>1.435773089490707</v>
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3283305654000112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.260457751835698</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.3278092028997522</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-8.816641809830744</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9226403354.607615</v>
+        <v>3965251420.313483</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249166718279699</v>
+        <v>0.38181876998869</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.111055147898784</v>
+        <v>0.7161972538013304</v>
       </c>
       <c r="I28" t="n">
-        <v>1.130125508722561</v>
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.353521968595952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.662855658696653</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5529309175003521</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.395762691310388</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>5867232476.077654</v>
+        <v>7822013212.150086</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2325972586844431</v>
+        <v>0.2069522226689048</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4885689694692335</v>
+        <v>0.3147428689182742</v>
       </c>
       <c r="I29" t="n">
-        <v>1.338171341010123</v>
+        <v>16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9877156966445571</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3431616329313959</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.503345497954199</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8910477498943904</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.31760949993361</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>4332837072.686763</v>
+        <v>10477970956.00817</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3554717830746706</v>
+        <v>0.1192453229013346</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9193507160252298</v>
+        <v>0.1133874922846902</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0761834425369433</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.72965230922334</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.768669940810505</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.64374650698676</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>9894837580.126921</v>
+        <v>6623051378.106297</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1487742641634263</v>
+        <v>0.1483109814378123</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1946966948011314</v>
+        <v>0.1801157273177976</v>
       </c>
       <c r="I31" t="n">
-        <v>1.443478490686543</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.586368428123943</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6478267651317242</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.370166874510542</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>9465850160.861574</v>
+        <v>12236396361.93095</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1239705573253222</v>
+        <v>0.08498399359105922</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1077381962367928</v>
+        <v>0.03473116210405662</v>
       </c>
       <c r="I32" t="n">
-        <v>1.150673245244789</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.201920921619195</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5561598743718181</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.921276565817168</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6019434736.794093</v>
+        <v>12473776993.77408</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1823301452695097</v>
+        <v>0.1089857074307594</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3123391527625283</v>
+        <v>0.08983371552746815</v>
       </c>
       <c r="I33" t="n">
-        <v>1.076187700351711</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.838828392579567</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7896900518152495</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.954972643725425</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10785622878.942</v>
+        <v>7643863602.48437</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1304155027287567</v>
+        <v>0.1452958108304067</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1303333179768559</v>
+        <v>0.1731935716507112</v>
       </c>
       <c r="I34" t="n">
-        <v>1.379266814054579</v>
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9831375111339368</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.262032879946717</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.994473351233835</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8080229033024696</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.16598471481556</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>11510619960.07502</v>
+        <v>13992317187.90725</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1078648121740185</v>
+        <v>0.1143804323835064</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05127359496736834</v>
+        <v>0.1022187944388608</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07280056729384796</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4105605781073672</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.57074444313017</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5190294653442041</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.809844863753913</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4421788522.464211</v>
+        <v>7006243365.26434</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3495056563986792</v>
+        <v>0.1730995494693671</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8984342690854578</v>
+        <v>0.2370247215409236</v>
       </c>
       <c r="I36" t="n">
-        <v>1.515395568514343</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.785478430170505</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7613561284616859</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.441644139063213</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4648847568.808394</v>
+        <v>3799734088.459972</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2586232377389343</v>
+        <v>0.2605786081207852</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5798125919252414</v>
+        <v>0.4378570260572965</v>
       </c>
       <c r="I37" t="n">
-        <v>1.178926382962853</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.78952708850883</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5987341586331136</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.185156084153443</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11490064525.92054</v>
+        <v>11588907316.40554</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09323972964496201</v>
+        <v>0.1087183248257079</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08921986501755268</v>
       </c>
       <c r="I38" t="n">
-        <v>1.050503029698926</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.825998709361739</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7707300535823158</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.588602362284577</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>6072585561.971805</v>
+        <v>3361131112.439061</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1919493003605393</v>
+        <v>0.4465492180431007</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3460626316615951</v>
+        <v>0.8648038489745392</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09482903917093891</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.520341040779824</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8149318279926346</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.778295519072868</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>5999049050.229962</v>
+        <v>7255515228.589192</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2322893959246061</v>
+        <v>0.1917019048515531</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.487489643563068</v>
+        <v>0.2797315585648997</v>
       </c>
       <c r="I40" t="n">
-        <v>1.366424478728187</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.041693337100401</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7954621124711022</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.867548912321643</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5549868505.824772</v>
+        <v>8096592008.492349</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2307949654402932</v>
+        <v>0.1449358839829343</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4822503689670229</v>
+        <v>0.1723672603100367</v>
       </c>
       <c r="I41" t="n">
-        <v>1.255980394921209</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.891323577914829</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7533335386048224</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.17534719418162</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>7586001764.776659</v>
+        <v>8890193724.03689</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1605610422680754</v>
+        <v>0.1272836695268514</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2360195718042067</v>
+        <v>0.1318417338162181</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08524730598869643</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.842705654391954</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.74455043453226</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.048303036253246</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>5183707309.223579</v>
+        <v>8851234364.342926</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2460869902377006</v>
+        <v>0.1118634282229293</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5358621748584048</v>
+        <v>0.09644031723713099</v>
       </c>
       <c r="I43" t="n">
-        <v>1.250843460790652</v>
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9877333044402508</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1808709947022419</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.045125367573616</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8372514820782312</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.69990427399101</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4128742794.478417</v>
+        <v>4517413299.936881</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3647960953184712</v>
+        <v>0.3415274644056936</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.95204051510076</v>
+        <v>0.6236974501117374</v>
       </c>
       <c r="I44" t="n">
-        <v>1.476868562535164</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.18022895290819</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.4679726294122411</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-11.53968154115301</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>9283958251.006344</v>
+        <v>13344884933.97404</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1687206229983002</v>
+        <v>0.07380285741487502</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2646259770421864</v>
+        <v>0.009061780425838726</v>
       </c>
       <c r="I45" t="n">
-        <v>1.535943305036571</v>
+        <v>6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9838691381326495</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1740142236988404</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.701579703631559</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8210116292897364</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.71865288216317</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>8014848528.868098</v>
+        <v>10430439874.18225</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1339950338589455</v>
+        <v>0.1491708574871569</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1428826782268063</v>
+        <v>0.1820898099296882</v>
       </c>
       <c r="I46" t="n">
-        <v>1.053071496764204</v>
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3153128725854056</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.624646562686106</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5701276690742736</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.777906818799366</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>4208910376.985013</v>
+        <v>3548306886.343393</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2956133864963099</v>
+        <v>0.309309325589654</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7094951356921064</v>
+        <v>0.5497318271912083</v>
       </c>
       <c r="I47" t="n">
-        <v>1.22002185600731</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.889039881662871</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7372318722018364</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.855597562373857</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>6776473982.736948</v>
+        <v>12932932179.75303</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2261269140711882</v>
+        <v>0.1180787426064707</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4658848014763209</v>
+        <v>0.1107092854928856</v>
       </c>
       <c r="I48" t="n">
-        <v>1.50255323318795</v>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2442759895526674</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.475304291947144</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5224299362915231</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.97329443388332</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>10002458651.3214</v>
+        <v>12247317214.58507</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1152248302318893</v>
+        <v>0.09217995012455048</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07707683977655354</v>
+        <v>0.05125146486107848</v>
       </c>
       <c r="I49" t="n">
-        <v>1.130125508722561</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.979946868854347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7439934099557203</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.899921330260058</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4549750287.461913</v>
+        <v>10601169695.34563</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3045567827796087</v>
+        <v>0.128731284303388</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7408494940522374</v>
+        <v>0.1351651327657001</v>
       </c>
       <c r="I50" t="n">
-        <v>1.358719077532351</v>
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9865547575653135</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3131705751796843</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.709679402801129</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8521916480384121</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.33415355796711</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5882415493.956964</v>
+        <v>10221633844.55108</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2124040764008536</v>
+        <v>0.1317173438684382</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4177743570317335</v>
+        <v>0.1420204560066808</v>
       </c>
       <c r="I51" t="n">
-        <v>1.225158790137867</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.747747691021505</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7872557080948952</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.997366470876399</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6112785684.788843</v>
+        <v>7739316260.039779</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2292528680479018</v>
+        <v>0.1448576182095752</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.476843980528488</v>
+        <v>0.1721875796427917</v>
       </c>
       <c r="I52" t="n">
-        <v>1.374129879924022</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.643045926571087</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7246516610829341</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.849987295087594</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>9115212753.75345</v>
+        <v>11753757230.55366</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1307509196106512</v>
+        <v>0.1176677289543483</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1315092449716821</v>
+        <v>0.1097656903031803</v>
       </c>
       <c r="I53" t="n">
-        <v>1.168652514701739</v>
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9884459755563237</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3186851701089782</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.628018860209679</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8461126713160899</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.29423456611212</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5012475099.171162</v>
+        <v>13557415712.03537</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2889835143998063</v>
+        <v>0.1174699628474331</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6862516855518279</v>
+        <v>0.1093116636638987</v>
       </c>
       <c r="I54" t="n">
-        <v>1.420362287099036</v>
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3030832669404825</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.534111569334959</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5522022396778489</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.509933224222019</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>5238051813.688164</v>
+        <v>9974130805.336468</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2835394117558872</v>
+        <v>0.1326222781530262</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6671653854663067</v>
+        <v>0.1440979822239424</v>
       </c>
       <c r="I55" t="n">
-        <v>1.456320826012936</v>
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3103756643516292</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.915655431064491</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5731781974964753</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.547908518865013</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>10100036254.76975</v>
+        <v>14468309799.45375</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1519759435789265</v>
+        <v>0.08653867917918595</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2059213571741175</v>
+        <v>0.03830037163003066</v>
       </c>
       <c r="I56" t="n">
-        <v>1.505121700253228</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.911347794223939</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7691861766974973</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.472375739726008</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>7244749477.282338</v>
+        <v>11795632129.87543</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1507692755181011</v>
+        <v>0.08349621530714871</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2016909393773019</v>
+        <v>0.03131555674691872</v>
       </c>
       <c r="I57" t="n">
-        <v>1.071050766221154</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.353669347765102</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6921571357147386</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.489473366529669</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>8073447083.573604</v>
+        <v>7868375417.254488</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1411335998372141</v>
+        <v>0.2057328144829218</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1679095414865786</v>
+        <v>0.3119433811332838</v>
       </c>
       <c r="I58" t="n">
-        <v>1.117283173396168</v>
+        <v>14</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9881614046142154</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4564156460451074</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.765749336145808</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9130465986394296</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15.49518263664278</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>4062088591.968703</v>
+        <v>3124994958.072896</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3353158773279887</v>
+        <v>0.5054383098825964</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8486867901702764</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1.335602873944844</v>
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9887549321404219</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4362656537458012</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.596449518768604</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8805169509961001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15.0138895011534</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6528078528.4905</v>
+        <v>6063898738.898007</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2351323644930068</v>
+        <v>0.1676022908299251</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4974567133961119</v>
+        <v>0.224404248274505</v>
       </c>
       <c r="I60" t="n">
-        <v>1.505121700253228</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.682129211886046</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7190600505679449</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.699071799472851</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>7474669414.468817</v>
+        <v>12641077781.45254</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1415759682898568</v>
+        <v>0.07936240780607895</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1694604264694211</v>
+        <v>0.02182526158753602</v>
       </c>
       <c r="I61" t="n">
-        <v>1.037660694372533</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.720476792293313</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7160268247518875</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.600059702744437</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>11032365774.91628</v>
+        <v>4209481557.903194</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1365209675538907</v>
+        <v>0.3621550442804099</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1517382659427551</v>
+        <v>0.6710537484841557</v>
       </c>
       <c r="I62" t="n">
-        <v>1.476868562535164</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.353464234968063</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.818965508968311</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.025845944398158</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>8077179600.329053</v>
+        <v>4274146338.468492</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.181929567338101</v>
+        <v>0.3652557297697467</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3109347797911545</v>
+        <v>0.6781722271464075</v>
       </c>
       <c r="I63" t="n">
-        <v>1.440910023621265</v>
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9891820226795728</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5018214931052569</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.811155183205957</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8981528590214853</v>
+      </c>
+      <c r="N63" t="n">
+        <v>15.15190199722375</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>5578749840.787353</v>
+        <v>6285049782.505997</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2450946213797291</v>
+        <v>0.1983802329570188</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5323830615760853</v>
+        <v>0.2950635025114113</v>
       </c>
       <c r="I64" t="n">
-        <v>1.340739808075401</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.025496405627804</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7681528946817843</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.337561488007882</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9781702219.100901</v>
+        <v>8492638746.97519</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1234487375461111</v>
+        <v>0.1181289349387807</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1059087654659187</v>
+        <v>0.1108245158339782</v>
       </c>
       <c r="I65" t="n">
-        <v>1.18406331709341</v>
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.985086500455801</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.06924835999024552</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.596813839922964</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8274676885359519</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.95253993079607</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11297470243.20603</v>
+        <v>12577208794.33272</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1089724755628683</v>
+        <v>0.09684313665436144</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05515691554673801</v>
+        <v>0.06195709557554961</v>
       </c>
       <c r="I66" t="n">
-        <v>1.207179520680917</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.201259396243566</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.762411012383559</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.046960851427615</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4155822026.268795</v>
+        <v>12450196995.90883</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2893049804347508</v>
+        <v>0.08099993520836536</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6873787027319882</v>
+        <v>0.02558465734441479</v>
       </c>
       <c r="I67" t="n">
-        <v>1.178926382962853</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.452140585289356</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5758397352956885</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.064654120624414</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>5329759057.693582</v>
+        <v>5646308314.443864</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2191933870469469</v>
+        <v>0.2379868393942553</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.441576777529793</v>
+        <v>0.3859913904823945</v>
       </c>
       <c r="I68" t="n">
-        <v>1.145536311114232</v>
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3082264435304135</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.913506210243276</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5812421493174699</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.711336776106123</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>7871909734.295272</v>
+        <v>8198789932.296784</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.18101683175964</v>
+        <v>0.1501579269826614</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3077348501996918</v>
+        <v>0.1843559001752393</v>
       </c>
       <c r="I69" t="n">
-        <v>1.397246083511529</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.721877102226387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7650334281682002</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.578791461137618</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8906857197.310041</v>
+        <v>5677061709.361828</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1491020570534215</v>
+        <v>0.1859437547172028</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1958458930939553</v>
+        <v>0.2665121369220483</v>
       </c>
       <c r="I70" t="n">
-        <v>0.08343885316438997</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.706630678433834</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7279850743149517</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.853070807865201</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>10899352077.27477</v>
+        <v>7287498552.998526</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.100215647889513</v>
+        <v>0.2059568806888384</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02445664192909389</v>
+        <v>0.3124577869029868</v>
       </c>
       <c r="I71" t="n">
-        <v>1.071050766221154</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.51884244446191</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8149318279926346</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.779794115390782</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>8874228149.427059</v>
+        <v>5783253465.581802</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1378435520703822</v>
+        <v>0.2409570129155338</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1563750714222433</v>
+        <v>0.3928102429287704</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06735505151615413</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.959486070554233</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7959387253961584</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.959288437368935</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>6743459634.267454</v>
+        <v>9311916546.947659</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1977129815124687</v>
+        <v>0.1606191037537019</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3662693315087891</v>
+        <v>0.2083724164851935</v>
       </c>
       <c r="I73" t="n">
-        <v>1.30734973622678</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.887442810987553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5779417021549405</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.671391232111256</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9389568639.286751</v>
+        <v>5553664088.824792</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1263725433600041</v>
+        <v>0.1830005026852576</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1161592399344862</v>
+        <v>0.2597550901789706</v>
       </c>
       <c r="I74" t="n">
-        <v>1.163515580571182</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.157966981586625</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6795849713956534</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.433732446326443</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>9814707291.085548</v>
+        <v>5144588964.729164</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.151590208029061</v>
+        <v>0.2016251341188746</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2045690196191655</v>
+        <v>0.3025130680224</v>
       </c>
       <c r="I75" t="n">
-        <v>1.458889293078214</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.813429140002892</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7238520050786011</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.66361096156913</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>9031762506.227365</v>
+        <v>12975590693.37483</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1287687933776059</v>
+        <v>0.1217279588517283</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1245601739188902</v>
+        <v>0.1190870677817191</v>
       </c>
       <c r="I76" t="n">
-        <v>0.09344301686363835</v>
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9886730343873132</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2670741694656826</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.498102471860159</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8918433282675042</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15.33876409348993</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5408965074.310973</v>
+        <v>14085968501.47575</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2518194851116709</v>
+        <v>0.0853544440252041</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.555959539761236</v>
+        <v>0.03558163324018151</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09385671707597897</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.778174640592022</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.759236069301103</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.406546745430038</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11620747925.6813</v>
+        <v>11383486697.21438</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1077442199079965</v>
+        <v>0.1053878000572154</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05085081451522885</v>
+        <v>0.08157372690385266</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05746920781675552</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.704022712988106</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7587038906507901</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.470055100027697</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>10241705516.12893</v>
+        <v>13929733561.04715</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1086968130695456</v>
+        <v>0.1002269615482184</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05419047949400183</v>
+        <v>0.06972559882638042</v>
       </c>
       <c r="I79" t="n">
-        <v>1.091598502743382</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.005908786027566</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7964146733197691</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.922384680367816</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7520993635.037148</v>
+        <v>10252840496.07274</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.16090402927113</v>
+        <v>0.1435794481113672</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2372220386373854</v>
+        <v>0.169253187682655</v>
       </c>
       <c r="I80" t="n">
-        <v>1.186631784158688</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.162691346708156</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.809937631306119</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.036061279414222</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6293824116.002626</v>
+        <v>3719382431.174005</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1764620903809725</v>
+        <v>0.2725463027151067</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2917665324710959</v>
+        <v>0.4653321695050909</v>
       </c>
       <c r="I81" t="n">
-        <v>1.089030035678104</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.472470683436615</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.577858715737014</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.084703631303665</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8503793715.691092</v>
+        <v>8808525384.245945</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1349154105047292</v>
+        <v>0.1474954527943635</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1461093963844361</v>
+        <v>0.1782434564064749</v>
       </c>
       <c r="I82" t="n">
-        <v>0.07101992146205195</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.899415618909664</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.563777861220389</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.376141605498116</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>10853691810.5921</v>
+        <v>11588550458.93209</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1054639702301953</v>
+        <v>0.1283865074646364</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.04285656230012069</v>
+        <v>0.1343736024481841</v>
       </c>
       <c r="I83" t="n">
-        <v>1.122420107526725</v>
+        <v>17</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3853479951347295</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.481034170721558</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.3910133058774188</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.339231946826819</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9549966257.710033</v>
+        <v>5638085473.719464</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1442726710042198</v>
+        <v>0.2810760775775447</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1789147076640018</v>
+        <v>0.4849146200828382</v>
       </c>
       <c r="I84" t="n">
-        <v>1.351013676336515</v>
+        <v>25</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9916253516026943</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4077501406744894</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.135897232692732</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.761987832889612</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.10385942509951</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10500034911.46701</v>
+        <v>13757248961.69769</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204915393774855</v>
+        <v>0.0913923418483258</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09554122184111455</v>
+        <v>0.04944329285272771</v>
       </c>
       <c r="I85" t="n">
-        <v>1.240569592529538</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.730931451603061</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7702162300344344</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.673393149085628</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9333475455.160143</v>
+        <v>4081617420.547625</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1442513527215248</v>
+        <v>0.3779924846050373</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1788399685991021</v>
+        <v>0.7074129604723598</v>
       </c>
       <c r="I86" t="n">
-        <v>1.320192071553173</v>
+        <v>14</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9860146485467265</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4185114108418267</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.727845100942528</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8917843320233543</v>
+      </c>
+      <c r="N86" t="n">
+        <v>15.10784153952456</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>7002570716.776258</v>
+        <v>8919333181.673357</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1552353976798451</v>
+        <v>0.1744432715213464</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2173485699131358</v>
+        <v>0.2401096060891651</v>
       </c>
       <c r="I87" t="n">
-        <v>1.065913832090597</v>
+        <v>16</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2967861507735109</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.456970015796314</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4958924520545746</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7.460879025295178</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10114307541.00916</v>
+        <v>6947014640.315062</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1162814266059635</v>
+        <v>0.1666572535029943</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.08078112619139166</v>
+        <v>0.2222346544637418</v>
       </c>
       <c r="I88" t="n">
-        <v>1.153241712310067</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.888753088598371</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.750067960327308</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.11260611794779</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8337118208.508143</v>
+        <v>11014295331.16098</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1599197080640383</v>
+        <v>0.1374584006038644</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2337711393491289</v>
+        <v>0.1552006350382051</v>
       </c>
       <c r="I89" t="n">
-        <v>0.09329739627534386</v>
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9893771014549967</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3465704595441322</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.655904149644833</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.88522404312709</v>
+      </c>
+      <c r="N89" t="n">
+        <v>15.04857671289697</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6630559622.752568</v>
+        <v>10826292991.52386</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1801419349132022</v>
+        <v>0.1042791924146045</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.304667578172108</v>
+        <v>0.07902861232326272</v>
       </c>
       <c r="I90" t="n">
-        <v>1.171220981767017</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.156396305460017</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7439934099557203</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.723471893654388</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8521402224.564758</v>
+        <v>14079828653.58591</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1478543738221854</v>
+        <v>0.08446147245528647</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1914716815625755</v>
+        <v>0.03353157073357891</v>
       </c>
       <c r="I91" t="n">
-        <v>1.235432658398981</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.678523186947578</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7565664168147699</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.452805149347819</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10455930299.03679</v>
+        <v>5042970847.388836</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1375339227474072</v>
+        <v>0.1968579315730188</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1552895521805778</v>
+        <v>0.2915686398570767</v>
       </c>
       <c r="I92" t="n">
-        <v>1.410088418837922</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.656429751222364</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5996579782407541</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8.336729813592717</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6229286111.33248</v>
+        <v>9946822784.491404</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2022585842875171</v>
+        <v>0.1042823887057959</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.382205610508058</v>
+        <v>0.07903595029118077</v>
       </c>
       <c r="I93" t="n">
-        <v>0.07400269276002282</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>9.062105352198376</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7238520050786011</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.414934749373646</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>4467224796.784953</v>
+        <v>13211349599.3698</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2662062273776474</v>
+        <v>0.1015132988429867</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6063975454531729</v>
+        <v>0.07267874083860873</v>
       </c>
       <c r="I94" t="n">
-        <v>1.16608404763646</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.121908872133892</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7862770343444725</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.603631814755557</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>11062799819.91735</v>
+        <v>13536753960.766</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1380395916819011</v>
+        <v>0.09752504653820981</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1570623602371003</v>
+        <v>0.06352260777420587</v>
       </c>
       <c r="I95" t="n">
-        <v>1.497416299057393</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.108491393977017</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7823336293883905</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.538181193790793</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6288141447.969109</v>
+        <v>4578156506.873717</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2478533701724161</v>
+        <v>0.3307024165134689</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5420548680723509</v>
+        <v>0.5988455672930333</v>
       </c>
       <c r="I96" t="n">
-        <v>1.528237903840735</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.596551021253753</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.5529309175003521</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.462067328753289</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6365561624.856825</v>
+        <v>10770940617.65545</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2464848669241012</v>
+        <v>0.141050466614744</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5372570776239061</v>
+        <v>0.1634472132028659</v>
       </c>
       <c r="I97" t="n">
-        <v>1.538511772101849</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.485028641569717</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.4186720281886415</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5.888411922203113</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>10363646106.58945</v>
+        <v>3659345026.675619</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1031211514758776</v>
+        <v>0.302786963766185</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.03464295122119647</v>
+        <v>0.5347579468581275</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0607631085160989</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.767781029731678</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.739501768036709</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.022254331002502</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>8863758762.2194</v>
+        <v>8031138937.998323</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1575104769266556</v>
+        <v>0.1360063172151073</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2253246952845905</v>
+        <v>0.1518669771569961</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07483454441317478</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.834887172695385</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.736090782728247</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.886928481869555</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>7808634020.242495</v>
+        <v>4302901675.956445</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1492743221129733</v>
+        <v>0.3055923372238614</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1964498314904012</v>
+        <v>0.5411984553091758</v>
       </c>
       <c r="I100" t="n">
-        <v>1.142967844048953</v>
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9885062728116397</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2128994250382463</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.522233115138947</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8242606032817655</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.96297895049636</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10005974171.67065</v>
+        <v>12809579215.79932</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1698969116683379</v>
+        <v>0.1235100336511152</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2687498887337883</v>
+        <v>0.1231783119525961</v>
       </c>
       <c r="I101" t="n">
-        <v>1.666935125365777</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.615010854071622</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5476882662089152</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.338754470106682</v>
       </c>
     </row>
   </sheetData>
